--- a/casus/criteria_totaalscore_gewogen.xlsx
+++ b/casus/criteria_totaalscore_gewogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.wiersma\Documents\DiSGeo\disgeo-imsor\casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\disgeo-imsor\casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BFD29-F1AE-453E-8047-ABC94F3DF94F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8323B79-ADB6-4E09-9FE9-C9A034D07F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="3" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,17 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,35 +574,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,6 +624,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,21 +642,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -972,894 +972,894 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD77114-9A9E-4F4B-AE76-AA14352861ED}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="14" width="17" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="44.33203125" customWidth="1"/>
+    <col min="15" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="46"/>
-    </row>
-    <row r="3" spans="1:17" ht="42.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="42.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>5</v>
       </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
         <v>2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>7</v>
       </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="42">
         <v>7</v>
       </c>
-      <c r="O3" s="47">
-        <v>0</v>
-      </c>
-      <c r="P3" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="28" t="s">
+      <c r="O3" s="42">
+        <v>0</v>
+      </c>
+      <c r="P3" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="52">
         <f>(E3-F3)*C3</f>
         <v>7</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="52">
         <f>(H3-I3)*C3</f>
         <v>5</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26">
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="52">
         <f>(K3-L3)*C3</f>
         <v>7</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="26">
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="52">
         <f>(N3-O3)*C3</f>
         <v>7</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="1:17" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>6</v>
+      </c>
+      <c r="I5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>3</v>
+      </c>
+      <c r="L5" s="21">
         <v>4</v>
       </c>
-      <c r="F5" s="22">
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="43">
+        <v>1</v>
+      </c>
+      <c r="O5" s="44">
+        <v>4</v>
+      </c>
+      <c r="P5" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="52">
+        <f>(F5-E5)*C5</f>
+        <v>-5</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="52">
+        <f>(I5-H5)*C5</f>
+        <v>-25</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="52">
+        <f>(L5-K5)*C5</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="52">
+        <f>(O5-N5)*C5</f>
+        <v>15</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="24">
+      <c r="C7" s="27">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="24">
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>5</v>
+      </c>
+      <c r="M7" s="45">
+        <v>2</v>
+      </c>
+      <c r="N7" s="30">
+        <v>2</v>
+      </c>
+      <c r="O7" s="43">
         <v>3</v>
       </c>
-      <c r="L5" s="22">
+      <c r="P7" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="52">
+        <f>(E7-F7)*C7</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52">
+        <f>(H7-I7)*C7</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="52">
+        <f>(K7-L7)*C7</f>
+        <v>-15</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="52">
+        <f>(N7-O7)*C7</f>
+        <v>-3</v>
+      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="51"/>
+    </row>
+    <row r="9" spans="1:17" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>7</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>4</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2</v>
+      </c>
+      <c r="J9" s="21">
         <v>1</v>
       </c>
-      <c r="O5" s="51">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>7</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="44">
+        <v>5</v>
+      </c>
+      <c r="O9" s="43">
+        <v>2</v>
+      </c>
+      <c r="P9" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="52">
+        <f>(F9-E9)*C9</f>
+        <v>35</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="52">
+        <f>(I9-H9)*C9</f>
+        <v>-10</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="52">
+        <f>(L9-K9)*C9</f>
+        <v>35</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="52">
+        <f>(O9-N9)*C9</f>
+        <v>-15</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="18">
         <v>4</v>
       </c>
-      <c r="P5" s="51">
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>7</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23">
+        <v>6</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="44">
         <v>2</v>
       </c>
-      <c r="Q5" s="48"/>
-    </row>
-    <row r="6" spans="1:17" s="21" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28" t="s">
+      <c r="O11" s="43">
+        <v>5</v>
+      </c>
+      <c r="P11" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="26">
-        <f>(F5-E5)*C5</f>
-        <v>-1</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26">
-        <f>(I5-H5)*C5</f>
-        <v>-5</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26">
-        <f>(L5-K5)*C5</f>
+      <c r="E12" s="52">
+        <f>(F11-E11)*C11</f>
+        <v>-9</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52">
+        <f>(I11-H11)*C11</f>
+        <v>21</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="52">
+        <f>(L11-K11)*C11</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="52">
+        <f>(O11-N11)*C11</f>
+        <v>9</v>
+      </c>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4</v>
+      </c>
+      <c r="F13" s="23">
         <v>1</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="26">
-        <f>(O5-N5)*C5</f>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>5</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <v>2</v>
+      </c>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21">
+        <v>4</v>
+      </c>
+      <c r="N13" s="43">
+        <v>2</v>
+      </c>
+      <c r="O13" s="44">
         <v>3</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="P13" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="52">
+        <f>(F13-E13)*C13</f>
+        <v>-12</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52">
+        <f>(I13-H13)*C13</f>
+        <v>-20</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="52">
+        <f>(L13-K13)*C13</f>
+        <v>-4</v>
+      </c>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="52">
+        <f>(O13-N13)*C13</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27">
         <v>6</v>
       </c>
-      <c r="C7" s="31">
+      <c r="D15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="18">
+        <v>7</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
+        <v>2</v>
+      </c>
+      <c r="I15" s="21">
+        <v>4</v>
+      </c>
+      <c r="J15" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="K15" s="21">
+        <v>7</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <v>7</v>
+      </c>
+      <c r="O15" s="44">
+        <v>0</v>
+      </c>
+      <c r="P15" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="52">
+        <f>(E15-F15)*C15</f>
+        <v>42</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="52">
+        <f>(H15-I15)*C15</f>
+        <v>-12</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="52">
+        <f>(K15-L15)*C15</f>
+        <v>42</v>
+      </c>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="52">
+        <f>(N15-O15)*C15</f>
+        <v>42</v>
+      </c>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="51"/>
+    </row>
+    <row r="17" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="48">
         <v>4</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F18" s="43">
+        <v>1</v>
+      </c>
+      <c r="G18" s="43">
         <v>2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H18" s="43">
+        <v>2</v>
+      </c>
+      <c r="I18" s="43">
         <v>1</v>
       </c>
-      <c r="H7" s="22">
+      <c r="J18" s="43">
+        <v>4</v>
+      </c>
+      <c r="K18" s="43">
         <v>5</v>
       </c>
-      <c r="I7" s="22">
+      <c r="L18" s="43">
+        <v>0</v>
+      </c>
+      <c r="M18" s="43">
         <v>2</v>
       </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>5</v>
-      </c>
-      <c r="M7" s="52">
+      <c r="N18" s="43">
+        <v>4</v>
+      </c>
+      <c r="O18" s="29">
+        <v>1</v>
+      </c>
+      <c r="P18" s="29">
         <v>2</v>
       </c>
-      <c r="N7" s="34">
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="52">
+        <f>(E18-F18)*C18</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="52">
+        <f>(H18-I18)*C18</f>
         <v>2</v>
       </c>
-      <c r="O7" s="50">
-        <v>3</v>
-      </c>
-      <c r="P7" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="48"/>
-    </row>
-    <row r="8" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="26">
-        <f>(E7-F7)*C7</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26">
-        <f>(H7-I7)*C7</f>
-        <v>3</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26">
-        <f>(K7-L7)*C7</f>
-        <v>-5</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="26">
-        <f>(N7-O7)*C7</f>
-        <v>-1</v>
-      </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="49"/>
-    </row>
-    <row r="9" spans="1:17" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="24">
-        <v>7</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2</v>
-      </c>
-      <c r="J9" s="22">
-        <v>1</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <v>7</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-      <c r="N9" s="51">
-        <v>5</v>
-      </c>
-      <c r="O9" s="50">
-        <v>2</v>
-      </c>
-      <c r="P9" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="26">
-        <f>(F9-E9)*C9</f>
-        <v>7</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26">
-        <f>(I9-H9)*C9</f>
-        <v>-2</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26">
-        <f>(L9-K9)*C9</f>
-        <v>7</v>
-      </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="26">
-        <f>(O9-N9)*C9</f>
-        <v>-3</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="1:17" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="52">
+        <f>(K18-L18)*C18</f>
         <v>10</v>
       </c>
-      <c r="C11" s="31">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19">
-        <v>4</v>
-      </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>7</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="52">
+        <f>(N18-O18)*C18</f>
         <v>6</v>
       </c>
-      <c r="M11" s="24">
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <v>2</v>
-      </c>
-      <c r="O11" s="50">
-        <v>5</v>
-      </c>
-      <c r="P11" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="26">
-        <f>(F11-E11)*C11</f>
-        <v>-3</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26">
-        <f>(I11-H11)*C11</f>
-        <v>7</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26">
-        <f>(L11-K11)*C11</f>
-        <v>5</v>
-      </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="26">
-        <f>(O11-N11)*C11</f>
-        <v>3</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>6</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24">
-        <v>2</v>
-      </c>
-      <c r="H13" s="24">
-        <v>5</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
-        <v>2</v>
-      </c>
-      <c r="K13" s="24">
-        <v>2</v>
-      </c>
-      <c r="L13" s="22">
-        <v>1</v>
-      </c>
-      <c r="M13" s="22">
-        <v>4</v>
-      </c>
-      <c r="N13" s="50">
-        <v>2</v>
-      </c>
-      <c r="O13" s="51">
-        <v>3</v>
-      </c>
-      <c r="P13" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="26">
-        <f>(F13-E13)*C13</f>
-        <v>-3</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26">
-        <f>(I13-H13)*C13</f>
-        <v>-5</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26">
-        <f>(L13-K13)*C13</f>
-        <v>-1</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="26">
-        <f>(O13-N13)*C13</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="49"/>
-    </row>
-    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="19">
-        <v>7</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2</v>
-      </c>
-      <c r="I15" s="22">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22">
-        <v>7</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="50">
-        <v>7</v>
-      </c>
-      <c r="O15" s="51">
-        <v>0</v>
-      </c>
-      <c r="P15" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="26">
-        <f>(E15-F15)*C15</f>
-        <v>7</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26">
-        <f>(H15-I15)*C15</f>
-        <v>-2</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26">
-        <f>(K15-L15)*C15</f>
-        <v>7</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="26">
-        <f>(N15-O15)*C15</f>
-        <v>7</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="53"/>
-    </row>
-    <row r="18" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>8</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="55">
-        <v>4</v>
-      </c>
-      <c r="F18" s="50">
-        <v>1</v>
-      </c>
-      <c r="G18" s="50">
-        <v>2</v>
-      </c>
-      <c r="H18" s="50">
-        <v>2</v>
-      </c>
-      <c r="I18" s="50">
-        <v>1</v>
-      </c>
-      <c r="J18" s="50">
-        <v>4</v>
-      </c>
-      <c r="K18" s="50">
-        <v>5</v>
-      </c>
-      <c r="L18" s="50">
-        <v>0</v>
-      </c>
-      <c r="M18" s="50">
-        <v>2</v>
-      </c>
-      <c r="N18" s="50">
-        <v>4</v>
-      </c>
-      <c r="O18" s="33">
-        <v>1</v>
-      </c>
-      <c r="P18" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="48"/>
-    </row>
-    <row r="19" spans="1:17" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="26">
-        <f>(E18-F18)*C18</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26">
-        <f>(H18-I18)*C18</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="26">
-        <f>(K18-L18)*C18</f>
-        <v>5</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="26">
-        <f>(N18-O18)*C18</f>
-        <v>3</v>
-      </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="49"/>
-    </row>
-    <row r="20" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="56" t="s">
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="51"/>
+    </row>
+    <row r="20" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56">
         <f>SUM(E4,E6,E8,E10,E12,E14,E16,E19)</f>
-        <v>19</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="57">
-        <f t="shared" ref="H20:O20" si="0">SUM(H4,H6,H8,H10,H12,H14,H16,H19)</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="57">
-        <f t="shared" ref="K20:O20" si="1">SUM(K4,K6,K8,K10,K12,K14,K16,K19)</f>
-        <v>26</v>
-      </c>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="57">
-        <f t="shared" ref="N20:O20" si="2">SUM(N4,N6,N8,N10,N12,N14,N16,N19)</f>
-        <v>20</v>
-      </c>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="39"/>
-    </row>
-    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="56">
+        <f t="shared" ref="H20" si="0">SUM(H4,H6,H8,H10,H12,H14,H16,H19)</f>
+        <v>-30</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="56">
+        <f t="shared" ref="K20" si="1">SUM(K4,K6,K8,K10,K12,K14,K16,K19)</f>
+        <v>95</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="56">
+        <f t="shared" ref="N20" si="2">SUM(N4,N6,N8,N10,N12,N14,N16,N19)</f>
+        <v>65</v>
+      </c>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="35"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="49"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1876,7 +1876,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1893,7 +1893,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1910,7 +1910,7 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1927,7 +1927,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1944,7 +1944,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1961,7 +1961,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1978,7 +1978,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1995,7 +1995,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2012,7 +2012,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2029,7 +2029,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2046,7 +2046,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2063,7 +2063,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2080,7 +2080,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2097,7 +2097,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2114,7 +2114,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2131,7 +2131,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2148,7 +2148,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2165,7 +2165,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2182,7 +2182,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2199,7 +2199,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2216,7 +2216,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2235,6 +2235,50 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="K21:L21"/>
@@ -2244,56 +2288,12 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:P4 E6:P6 E8:P8 E10:P10 E12:P12 E14:P14 E16:P16 E19:P19">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>-3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,18 +2317,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
